--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf2.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf2.xlsx
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A soberania do Estado costeiro estende-se ao espaço aéreo sobrejacente ao mar territorial, bem como ao leito e ao subsolo deste mar.</t>
+          <t>A soberania do Estado costeiro estende-se, além do seu território e águas interiores, ao espaço aéreo sobrejacente ao mar territorial, bem como ao leito e subsolo deste mar.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A soberania do Estado costeiro sobre o mar territorial limita-se apenas à coluna d'água, não abrangendo o espaço aéreo nem o subsolo.</t>
+          <t>A soberania do Estado costeiro limita-se à coluna d'água do mar territorial, não se estendendo ao espaço aéreo sobrejacente nem ao subsolo marinho.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 2 estabelece que a soberania se estende ao espaço aéreo sobrejacente, leito e subsolo do mar territorial.</t>
+          <t>Conforme o **Artigo 2, parágrafo 2**, a soberania estende-se ao espaço aéreo sobrejacente, ao leito e ao subsolo do mar territorial.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Todo Estado tem o direito de fixar a largura do seu mar territorial até um limite que não ultrapasse 12 milhas marítimas.</t>
+          <t>Todo Estado tem o direito de fixar a largura do seu mar territorial até um limite que não ultrapasse 12 milhas marítimas, medidas a partir das linhas de base.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O limite máximo para a largura do mar territorial é de 24 milhas marítimas a partir das linhas de base.</t>
+          <t>A Convenção estabelece que a largura do mar territorial é fixada obrigatoriamente em 200 milhas marítimas para todos os Estados costeiros.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 3 define que a largura do mar territorial não pode ultrapassar 12 milhas marítimas.</t>
+          <t>Segundo o **Artigo 3**, o limite máximo para a fixação da largura do mar territorial é de 12 milhas marítimas.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -556,22 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nos locais onde a costa apresente recortes profundos e reentrâncias, pode ser adotado o método das linhas de base retas.</t>
+          <t>A linha de base normal para medir a largura do mar territorial é a linha de baixa-mar ao longo da costa, indicada nas cartas marítimas reconhecidas oficialmente.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O método das linhas de base retas é proibido, devendo-se usar sempre a linha de baixa-mar, mesmo em costas com recortes profundos.</t>
+          <t>A linha de base normal é definida pela linha de preia-mar (maré alta) ao longo da costa, conforme indicado nas cartas geográficas.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 7 permite o uso de linhas de base retas em locais com recortes profundos ou franja de ilhas.</t>
+          <t>O **Artigo 5** define explicitamente que a linha de base normal é a linha de baixa-mar ao longo da costa.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -590,22 +590,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>As águas situadas no interior da linha de base do mar territorial fazem parte das águas interiores do Estado.</t>
+          <t>Instalações marítimas situadas ao largo da costa e ilhas artificiais não são consideradas instalações portuárias permanentes para fins de delimitação da costa.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>As águas situadas no interior da linha de base do mar territorial são consideradas parte do alto mar.</t>
+          <t>Ilhas artificiais e instalações de exploração de petróleo são consideradas parte integrante do sistema portuário e contam como costa para delimitação do mar territorial.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 8 define que as águas no interior da linha de base são águas interiores.</t>
+          <t>De acordo com o **Artigo 11**, instalações marítimas ao largo e ilhas artificiais não são consideradas instalações portuárias permanentes.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -624,22 +624,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Uma reentrância só é considerada baía se sua superfície for igual ou superior à de um semicírculo que tenha por diâmetro a entrada da reentrância.</t>
+          <t>Uma reentrância só é considerada juridicamente uma baía se sua superfície for igual ou superior à de um semicírculo que tenha por diâmetro a linha traçada através de sua entrada.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Qualquer reentrância na costa, independentemente de sua área ou profundidade, é juridicamente considerada uma baía.</t>
+          <t>Qualquer reentrância na costa, independentemente de sua área ou profundidade de penetração, é considerada juridicamente uma baía para fins de traçado de linhas de base.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 10 estabelece o critério do semicírculo para definir juridicamente uma baía.</t>
+          <t>O **Artigo 10, parágrafo 2**, estabelece o critério técnico do semicírculo para a definição jurídica de baía.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -658,22 +658,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Um baixio a descoberto é uma extensão de terra que fica acima do nível do mar na baixa-mar, mas submerge na preia-mar.</t>
+          <t>As águas situadas no interior da linha de base do mar territorial fazem parte das águas interiores do Estado, excetuando o disposto para águas arquipelágicas.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Um baixio a descoberto é uma ilha que permanece acima do nível do mar mesmo durante a preia-mar (maré alta).</t>
+          <t>As águas situadas entre a linha de base e o limite exterior de 12 milhas são consideradas águas interiores do Estado costeiro.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 13 define baixio a descoberto como aquele que submerge na preia-mar.</t>
+          <t>Conforme o **Artigo 8, parágrafo 1**, são águas interiores aquelas situadas no interior da linha de base do mar territorial.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Se um baixio a descoberto estiver totalmente situado a uma distância do continente superior à largura do mar territorial, ele não possui mar territorial próprio.</t>
+          <t>A passagem pelo mar territorial deve ser contínua e rápida, permitindo-se o parar e fundear apenas em situações como força maior, dificuldade grave ou auxílio.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Baixios a descoberto geram seu próprio mar territorial, independentemente da distância em que se encontrem do continente.</t>
+          <t>O direito de passagem inocente permite que navios estrangeiros parem e fundeiem livremente no mar territorial para fins de turismo ou descanso da tripulação.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 13, parágrafo 2, afirma que baixios a descoberto isolados (fora da largura do mar territorial) não possuem mar territorial próprio.</t>
+          <t>Segundo o **Artigo 18, parágrafo 2**, o parar e fundear só são permitidos se constituírem incidentes comuns de navegação ou por motivo de força maior/auxílio.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -726,22 +726,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Salvo acordo em contrário, Estados com costas adjacentes não podem estender seu mar territorial além da linha mediana equidistante.</t>
+          <t>Um baixio a descoberto situado totalmente a uma distância do continente superior à largura do mar territorial não possui mar territorial próprio.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O Estado com maior extensão costeira tem o direito de estender seu mar territorial além da linha mediana sem o consentimento do Estado vizinho.</t>
+          <t>Todos os baixios a descoberto, independentemente de sua distância da costa, geram automaticamente seu próprio mar territorial de 12 milhas.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 15 estabelece a regra da linha mediana para delimitação entre Estados com costas adjacentes ou frente a frente.</t>
+          <t>Conforme o **Artigo 13, parágrafo 2**, se o baixio estiver totalmente além da largura do mar territorial, não possui mar territorial próprio.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -760,22 +760,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve dar a devida publicidade às cartas ou listas de coordenadas geográficas das linhas de base e depositar um exemplar junto ao Secretário Geral da ONU.</t>
+          <t>Salvo acordo ou títulos históricos, Estados com costas adjacentes não podem estender seu mar territorial além da linha mediana equidistante.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>As cartas de linhas de base e coordenadas geográficas são documentos sigilosos de segurança nacional e não devem ser publicitados.</t>
+          <t>Estados com costas adjacentes podem estender unilateralmente seu mar territorial até onde desejarem, independentemente da linha mediana ou da posição do vizinho.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 16 exige a publicidade das cartas e o depósito junto ao Secretário Geral das Nações Unidas.</t>
+          <t>O **Artigo 15** estabelece a regra da linha mediana para delimitação entre Estados com costas adjacentes ou frente a frente, salvo exceções.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -794,22 +794,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A passagem é inocente desde que não seja prejudicial à paz, à boa ordem ou à segurança do Estado costeiro.</t>
+          <t>No mar territorial, os submarinos devem navegar à superfície e arvorar a sua bandeira para exercer o direito de passagem inocente.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A passagem é considerada inocente apenas se o navio estrangeiro obtiver autorização prévia das autoridades navais do Estado costeiro.</t>
+          <t>Submarinos estrangeiros podem navegar submersos no mar territorial de outro Estado, desde que não realizem exercícios com armas.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 19 define passagem inocente baseada na não prejudicialidade à paz, ordem ou segurança.</t>
+          <t>O **Artigo 20** determina expressamente que submarinos devem navegar à superfície e arvorar sua bandeira.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -828,22 +828,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No mar territorial, os submarinos devem navegar à superfície e arvorar a sua bandeira.</t>
+          <t>A passagem deixa de ser inocente se o navio estrangeiro realizar qualquer exercício ou manobra com armas de qualquer tipo.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No mar territorial, submarinos podem navegar submersos para garantir a segurança de suas operações.</t>
+          <t>A realização de exercícios de tiro por navios estrangeiros é considerada parte da passagem inocente, desde que não haja intenção hostil declarada.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 20 exige expressamente que submarinos naveguem à superfície e arvorem a bandeira.</t>
+          <t>De acordo com o **Artigo 19, parágrafo 2, alínea b**, qualquer exercício ou manobra com armas torna a passagem prejudicial à paz (não inocente).</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -862,22 +862,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Qualquer atividade de pesca realizada por navio estrangeiro no mar territorial torna a passagem prejudicial (não inocente).</t>
+          <t>O Estado costeiro não pode aplicar leis sobre projeto e construção a navios estrangeiros em passagem inocente, salvo para aplicar normas internacionais geralmente aceitas.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Navios estrangeiros podem realizar atividades de pesca durante a passagem pelo mar territorial, desde que seja para subsistência da tripulação.</t>
+          <t>O Estado costeiro tem liberdade total para impor suas normas nacionais de design e construção a qualquer navio estrangeiro que cruze seu mar territorial.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 19 lista a atividade de pesca como um ato que torna a passagem prejudicial à paz, ordem ou segurança.</t>
+          <t>O **Artigo 21, parágrafo 2**, limita a legislação do Estado costeiro sobre design/construção à aplicação de regras internacionais geralmente aceitas.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -896,22 +896,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode exigir que navios tanques ou de propulsão nuclear utilizem rotas marítimas específicas no mar territorial.</t>
+          <t>O Estado costeiro pode exigir que navios tanques e de propulsão nuclear utilizem rotas marítimas específicas designadas no seu mar territorial.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Navios de propulsão nuclear têm livre trânsito e não podem ser obrigados a seguir rotas marítimas específicas pelo Estado costeiro.</t>
+          <t>Navios de propulsão nuclear têm imunidade total e podem escolher livremente sua rota no mar territorial, não podendo ser confinados a corredores específicos.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 22 permite ao Estado costeiro designar rotas e esquemas de separação de tráfego, especialmente para navios perigosos.</t>
+          <t>Conforme o **Artigo 22, parágrafo 2**, o Estado pode exigir que navios tanques e nucleares utilizem rotas marítimas específicas.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -930,22 +930,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O Estado costeiro não deve impor aos navios estrangeiros obrigações que tenham, na prática, o efeito de negar ou dificultar o direito de passagem inocente.</t>
+          <t>O Estado costeiro não deve fazer discriminação de direito ou de fato contra navios de determinado Estado ou que transportem cargas de/para determinado Estado.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O Estado costeiro tem total discricionariedade para criar obstáculos à passagem inocente de navios estrangeiros conforme sua conveniência política.</t>
+          <t>O Estado costeiro pode proibir a passagem inocente de navios que transportem mercadorias destinadas a um país com o qual tenha divergências diplomáticas.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O Artigo 24 proíbe o Estado costeiro de dificultar a passagem inocente, salvo em conformidade com a Convenção.</t>
+          <t>O **Artigo 24, parágrafo 1, alínea b**, proíbe a discriminação contra navios de determinado Estado ou baseada na origem/destino da carga.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -964,22 +964,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Navios estrangeiros de propulsão nuclear devem ter a bordo documentos e observar medidas especiais de precaução estabelecidas em acordos internacionais.</t>
+          <t>Navios estrangeiros de propulsão nuclear devem ter a bordo os documentos e observar as medidas especiais de precaução estabelecidas em acordos internacionais.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Navios de propulsão nuclear estão isentos de apresentar documentação especial ao exercerem o direito de passagem inocente.</t>
+          <t>Navios nucleares estão dispensados de portar documentação especial de segurança durante a passagem inocente, devido à natureza sigilosa de sua propulsão.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O Artigo 23 exige documentos e medidas especiais de precaução para navios nucleares.</t>
+          <t>Segundo o **Artigo 23**, tais navios devem ter a bordo documentos e observar medidas especiais de precaução.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -998,22 +998,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode suspender temporariamente, em determinadas áreas, o direito de passagem inocente se for indispensável à sua segurança, após devida publicidade.</t>
+          <t>O Estado costeiro pode suspender temporariamente o direito de passagem inocente em áreas determinadas se for indispensável à sua segurança, após a devida publicidade.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode suspender permanentemente e sem aviso prévio o direito de passagem inocente em todo o seu mar territorial.</t>
+          <t>O Estado costeiro jamais poderá suspender o direito de passagem inocente de navios estrangeiros pelo mar territorial, mesmo para exercícios de armas.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O Artigo 25 permite apenas a suspensão temporária, em áreas determinadas e após publicidade, por motivos de segurança.</t>
+          <t>O **Artigo 25, parágrafo 3**, permite a suspensão temporária e localizada se indispensável à segurança e após publicidade.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1032,22 +1032,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Não podem ser impostas taxas a navios estrangeiros apenas com fundamento na sua passagem pelo mar territorial.</t>
+          <t>Não podem ser impostas taxas a navios estrangeiros apenas pela sua passagem pelo mar territorial; elas só podem ser cobradas como remuneração de serviços prestados.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode cobrar pedágio de qualquer navio estrangeiro pelo simples fato de transitar em seu mar territorial.</t>
+          <t>O Estado costeiro tem o direito de cobrar pedágio ou taxas de circulação de qualquer navio estrangeiro pelo simples fato de transitar em seu mar territorial.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>O Artigo 26 proíbe taxas apenas pela passagem; elas só podem ser cobradas como remuneração por serviços prestados.</t>
+          <t>Conforme o **Artigo 26, parágrafos 1 e 2**, taxas só podem ser impostas como remuneração de serviços determinados, não pela passagem em si.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1066,22 +1066,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A jurisdição penal do Estado costeiro não deve ser exercida a bordo de navio estrangeiro em passagem, salvo se a infração tiver consequências para o Estado costeiro.</t>
+          <t>A jurisdição penal do Estado costeiro não deve ser exercida a bordo de navio estrangeiro em passagem, salvo se a infração perturbar a paz do país ou a ordem no mar territorial.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>O Estado costeiro deve exercer automaticamente sua jurisdição penal sobre qualquer crime ocorrido a bordo de navio estrangeiro, mesmo sem impacto no Estado.</t>
+          <t>O Estado costeiro deve exercer automaticamente sua jurisdição penal sobre qualquer crime cometido a bordo de navio estrangeiro, mesmo que não afete o Estado costeiro.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>O Artigo 27 limita a jurisdição penal a casos específicos, como quando há consequências para o Estado costeiro.</t>
+          <t>O **Artigo 27, parágrafo 1, alínea b**, estabelece a exceção para crimes que perturbem a paz ou a ordem; a regra geral é a não intervenção.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1100,22 +1100,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Se um navio de guerra não cumprir as leis do Estado costeiro e ignorar o pedido de acatamento, o Estado pode exigir que ele saia imediatamente do mar territorial.</t>
+          <t>A zona contígua não pode estender-se além de 24 milhas marítimas, contadas a partir das linhas de base que servem para medir a largura do mar territorial.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Navios de guerra possuem imunidade absoluta e não podem ser ordenados a sair do mar territorial, mesmo se violarem as leis locais.</t>
+          <t>A zona contígua estende-se por 24 milhas marítimas contadas a partir do limite exterior do mar territorial, totalizando 36 milhas da costa.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>O Artigo 30 autoriza o Estado costeiro a exigir a saída imediata de navio de guerra que não cumpra as leis.</t>
+          <t>O **Artigo 33, parágrafo 2**, define o limite exterior da zona contígua como 24 milhas contadas a partir das linhas de base.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1134,22 +1134,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A zona contígua não pode estender-se além de 24 milhas marítimas, contadas a partir das linhas de base.</t>
+          <t>O Estado costeiro não deve parar nem desviar um navio estrangeiro em passagem pelo mar territorial para exercer jurisdição civil sobre uma pessoa a bordo.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A zona contígua estende-se até 200 milhas marítimas a partir das linhas de base.</t>
+          <t>O Estado costeiro pode ordenar a parada de qualquer navio estrangeiro em passagem para notificar judicialmente um passageiro sobre um processo civil de dívida.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>O Artigo 33 limita a zona contígua a 24 milhas marítimas das linhas de base.</t>
+          <t>Conforme o **Artigo 28, parágrafo 1**, o Estado não deve parar ou desviar o navio para exercer jurisdição civil sobre pessoa a bordo.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Parte II</t>
+          <t>Parte II - Mar Territorial e Zona Contígua</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Na zona contígua, o Estado costeiro pode tomar medidas de fiscalização para evitar infrações às leis aduaneiras, fiscais, de imigração ou sanitárias.</t>
+          <t>Para ser considerado navio de guerra, a embarcação deve estar sob comando de oficial da lista oficial e ter tripulação submetida às regras da disciplina militar.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Na zona contígua, o Estado costeiro exerce soberania plena, idêntica à do mar territorial, sobre todas as matérias.</t>
+          <t>Qualquer navio armado a serviço do governo é considerado navio de guerra, mesmo que a tripulação seja civil e não esteja sujeita à disciplina militar.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>O Artigo 33 define a competência na zona contígua focada na fiscalização de leis aduaneiras, fiscais, de imigração ou sanitárias.</t>
+          <t>O **Artigo 29** define navio de guerra exigindo comando oficial e tripulação sob disciplina militar.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
